--- a/natmiOut/OldD0/LR-pairs_lrc2p/Pecam1-Cd38.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Pecam1-Cd38.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>99.8942350398013</v>
+        <v>216.1448186666667</v>
       </c>
       <c r="H2">
-        <v>99.8942350398013</v>
+        <v>648.434456</v>
       </c>
       <c r="I2">
-        <v>0.9504681918825738</v>
+        <v>0.9739197284603751</v>
       </c>
       <c r="J2">
-        <v>0.9504681918825738</v>
+        <v>0.9739197284603752</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.528412278922</v>
+        <v>24.030349</v>
       </c>
       <c r="N2">
-        <v>13.528412278922</v>
+        <v>72.091047</v>
       </c>
       <c r="O2">
-        <v>0.7956367559924712</v>
+        <v>0.8655386453070183</v>
       </c>
       <c r="P2">
-        <v>0.7956367559924712</v>
+        <v>0.8655386453070184</v>
       </c>
       <c r="Q2">
-        <v>1351.410395905968</v>
+        <v>5194.035427101715</v>
       </c>
       <c r="R2">
-        <v>1351.410395905968</v>
+        <v>46746.31884391543</v>
       </c>
       <c r="S2">
-        <v>0.7562274288634807</v>
+        <v>0.8429651624093721</v>
       </c>
       <c r="T2">
-        <v>0.7562274288634807</v>
+        <v>0.8429651624093724</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>99.8942350398013</v>
+        <v>216.1448186666667</v>
       </c>
       <c r="H3">
-        <v>99.8942350398013</v>
+        <v>648.434456</v>
       </c>
       <c r="I3">
-        <v>0.9504681918825738</v>
+        <v>0.9739197284603751</v>
       </c>
       <c r="J3">
-        <v>0.9504681918825738</v>
+        <v>0.9739197284603752</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.96418176028594</v>
+        <v>3.12343</v>
       </c>
       <c r="N3">
-        <v>2.96418176028594</v>
+        <v>9.370290000000001</v>
       </c>
       <c r="O3">
-        <v>0.1743302843897278</v>
+        <v>0.1125014610029717</v>
       </c>
       <c r="P3">
-        <v>0.1743302843897278</v>
+        <v>0.1125014610029717</v>
       </c>
       <c r="Q3">
-        <v>296.1046694626957</v>
+        <v>675.1132109680267</v>
       </c>
       <c r="R3">
-        <v>296.1046694626957</v>
+        <v>6076.01889871224</v>
       </c>
       <c r="S3">
-        <v>0.1656953901942795</v>
+        <v>0.1095673923514097</v>
       </c>
       <c r="T3">
-        <v>0.1656953901942795</v>
+        <v>0.1095673923514097</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>99.8942350398013</v>
+        <v>216.1448186666667</v>
       </c>
       <c r="H4">
-        <v>99.8942350398013</v>
+        <v>648.434456</v>
       </c>
       <c r="I4">
-        <v>0.9504681918825738</v>
+        <v>0.9739197284603751</v>
       </c>
       <c r="J4">
-        <v>0.9504681918825738</v>
+        <v>0.9739197284603752</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.510657981303308</v>
+        <v>0.6096826666666667</v>
       </c>
       <c r="N4">
-        <v>0.510657981303308</v>
+        <v>1.829048</v>
       </c>
       <c r="O4">
-        <v>0.03003295961780102</v>
+        <v>0.02195989369000996</v>
       </c>
       <c r="P4">
-        <v>0.03003295961780102</v>
+        <v>0.02195989369000996</v>
       </c>
       <c r="Q4">
-        <v>51.0117884092631</v>
+        <v>131.7797494308764</v>
       </c>
       <c r="R4">
-        <v>51.0117884092631</v>
+        <v>1186.017744877888</v>
       </c>
       <c r="S4">
-        <v>0.02854537282481369</v>
+        <v>0.0213871736995932</v>
       </c>
       <c r="T4">
-        <v>0.02854537282481369</v>
+        <v>0.02138717369959321</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.16090191666523</v>
+        <v>3.181559666666666</v>
       </c>
       <c r="H5">
-        <v>3.16090191666523</v>
+        <v>9.544678999999999</v>
       </c>
       <c r="I5">
-        <v>0.03007517629274534</v>
+        <v>0.01433568357434949</v>
       </c>
       <c r="J5">
-        <v>0.03007517629274534</v>
+        <v>0.01433568357434949</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>13.528412278922</v>
+        <v>24.030349</v>
       </c>
       <c r="N5">
-        <v>13.528412278922</v>
+        <v>72.091047</v>
       </c>
       <c r="O5">
-        <v>0.7956367559924712</v>
+        <v>0.8655386453070183</v>
       </c>
       <c r="P5">
-        <v>0.7956367559924712</v>
+        <v>0.8655386453070184</v>
       </c>
       <c r="Q5">
-        <v>42.76198430188198</v>
+        <v>76.45398915432366</v>
       </c>
       <c r="R5">
-        <v>42.76198430188198</v>
+        <v>688.0859023889129</v>
       </c>
       <c r="S5">
-        <v>0.02392891570146158</v>
+        <v>0.01240808814049253</v>
       </c>
       <c r="T5">
-        <v>0.02392891570146158</v>
+        <v>0.01240808814049253</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.16090191666523</v>
+        <v>3.181559666666666</v>
       </c>
       <c r="H6">
-        <v>3.16090191666523</v>
+        <v>9.544678999999999</v>
       </c>
       <c r="I6">
-        <v>0.03007517629274534</v>
+        <v>0.01433568357434949</v>
       </c>
       <c r="J6">
-        <v>0.03007517629274534</v>
+        <v>0.01433568357434949</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.96418176028594</v>
+        <v>3.12343</v>
       </c>
       <c r="N6">
-        <v>2.96418176028594</v>
+        <v>9.370290000000001</v>
       </c>
       <c r="O6">
-        <v>0.1743302843897278</v>
+        <v>0.1125014610029717</v>
       </c>
       <c r="P6">
-        <v>0.1743302843897278</v>
+        <v>0.1125014610029717</v>
       </c>
       <c r="Q6">
-        <v>9.369487807431943</v>
+        <v>9.937378909656667</v>
       </c>
       <c r="R6">
-        <v>9.369487807431943</v>
+        <v>89.43641018691</v>
       </c>
       <c r="S6">
-        <v>0.005243014036185495</v>
+        <v>0.001612785346590621</v>
       </c>
       <c r="T6">
-        <v>0.005243014036185495</v>
+        <v>0.001612785346590621</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.16090191666523</v>
+        <v>3.181559666666666</v>
       </c>
       <c r="H7">
-        <v>3.16090191666523</v>
+        <v>9.544678999999999</v>
       </c>
       <c r="I7">
-        <v>0.03007517629274534</v>
+        <v>0.01433568357434949</v>
       </c>
       <c r="J7">
-        <v>0.03007517629274534</v>
+        <v>0.01433568357434949</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.510657981303308</v>
+        <v>0.6096826666666667</v>
       </c>
       <c r="N7">
-        <v>0.510657981303308</v>
+        <v>1.829048</v>
       </c>
       <c r="O7">
-        <v>0.03003295961780102</v>
+        <v>0.02195989369000996</v>
       </c>
       <c r="P7">
-        <v>0.03003295961780102</v>
+        <v>0.02195989369000996</v>
       </c>
       <c r="Q7">
-        <v>1.614139791862023</v>
+        <v>1.939741781732444</v>
       </c>
       <c r="R7">
-        <v>1.614139791862023</v>
+        <v>17.457676035592</v>
       </c>
       <c r="S7">
-        <v>0.0009032465550982675</v>
+        <v>0.0003148100872663367</v>
       </c>
       <c r="T7">
-        <v>0.0009032465550982675</v>
+        <v>0.0003148100872663367</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.04489257944328</v>
+        <v>2.606510333333333</v>
       </c>
       <c r="H8">
-        <v>2.04489257944328</v>
+        <v>7.819531</v>
       </c>
       <c r="I8">
-        <v>0.01945663182468085</v>
+        <v>0.01174458796527538</v>
       </c>
       <c r="J8">
-        <v>0.01945663182468085</v>
+        <v>0.01174458796527538</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>13.528412278922</v>
+        <v>24.030349</v>
       </c>
       <c r="N8">
-        <v>13.528412278922</v>
+        <v>72.091047</v>
       </c>
       <c r="O8">
-        <v>0.7956367559924712</v>
+        <v>0.8655386453070183</v>
       </c>
       <c r="P8">
-        <v>0.7956367559924712</v>
+        <v>0.8655386453070184</v>
       </c>
       <c r="Q8">
-        <v>27.66414988081695</v>
+        <v>62.63535298210633</v>
       </c>
       <c r="R8">
-        <v>27.66414988081695</v>
+        <v>563.718176838957</v>
       </c>
       <c r="S8">
-        <v>0.01548041142752894</v>
+        <v>0.01016539475715356</v>
       </c>
       <c r="T8">
-        <v>0.01548041142752894</v>
+        <v>0.01016539475715356</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.04489257944328</v>
+        <v>2.606510333333333</v>
       </c>
       <c r="H9">
-        <v>2.04489257944328</v>
+        <v>7.819531</v>
       </c>
       <c r="I9">
-        <v>0.01945663182468085</v>
+        <v>0.01174458796527538</v>
       </c>
       <c r="J9">
-        <v>0.01945663182468085</v>
+        <v>0.01174458796527538</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.96418176028594</v>
+        <v>3.12343</v>
       </c>
       <c r="N9">
-        <v>2.96418176028594</v>
+        <v>9.370290000000001</v>
       </c>
       <c r="O9">
-        <v>0.1743302843897278</v>
+        <v>0.1125014610029717</v>
       </c>
       <c r="P9">
-        <v>0.1743302843897278</v>
+        <v>0.1125014610029717</v>
       </c>
       <c r="Q9">
-        <v>6.061433285729838</v>
+        <v>8.141252570443333</v>
       </c>
       <c r="R9">
-        <v>6.061433285729838</v>
+        <v>73.27127313399001</v>
       </c>
       <c r="S9">
-        <v>0.003391880159262841</v>
+        <v>0.001321283304971399</v>
       </c>
       <c r="T9">
-        <v>0.003391880159262841</v>
+        <v>0.001321283304971399</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.04489257944328</v>
+        <v>2.606510333333333</v>
       </c>
       <c r="H10">
-        <v>2.04489257944328</v>
+        <v>7.819531</v>
       </c>
       <c r="I10">
-        <v>0.01945663182468085</v>
+        <v>0.01174458796527538</v>
       </c>
       <c r="J10">
-        <v>0.01945663182468085</v>
+        <v>0.01174458796527538</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.510657981303308</v>
+        <v>0.6096826666666667</v>
       </c>
       <c r="N10">
-        <v>0.510657981303308</v>
+        <v>1.829048</v>
       </c>
       <c r="O10">
-        <v>0.03003295961780102</v>
+        <v>0.02195989369000996</v>
       </c>
       <c r="P10">
-        <v>0.03003295961780102</v>
+        <v>0.02195989369000996</v>
       </c>
       <c r="Q10">
-        <v>1.04424071660062</v>
+        <v>1.589144170720889</v>
       </c>
       <c r="R10">
-        <v>1.04424071660062</v>
+        <v>14.302297536488</v>
       </c>
       <c r="S10">
-        <v>0.0005843402378890621</v>
+        <v>0.0002579099031504176</v>
       </c>
       <c r="T10">
-        <v>0.0005843402378890621</v>
+        <v>0.0002579099031504176</v>
       </c>
     </row>
   </sheetData>
